--- a/output/task2-nerG/version_8-1/eval-performances.xlsx
+++ b/output/task2-nerG/version_8-1/eval-performances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,6 +1573,2182 @@
         <v>19.2890625</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1.0295</v>
+      </c>
+      <c r="B36" t="n">
+        <v>60.7546895487151</v>
+      </c>
+      <c r="C36" t="n">
+        <v>57.1326676126913</v>
+      </c>
+      <c r="D36" t="n">
+        <v>63.09523809023791</v>
+      </c>
+      <c r="E36" t="n">
+        <v>72.14960787756414</v>
+      </c>
+      <c r="F36" t="n">
+        <v>70.18453560579663</v>
+      </c>
+      <c r="G36" t="n">
+        <v>66.85752036497848</v>
+      </c>
+      <c r="H36" t="n">
+        <v>54.84677923208583</v>
+      </c>
+      <c r="I36" t="n">
+        <v>41.01647805765143</v>
+      </c>
+      <c r="J36" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>1.0598</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60.57446306742386</v>
+      </c>
+      <c r="C37" t="n">
+        <v>59.71914264096749</v>
+      </c>
+      <c r="D37" t="n">
+        <v>61.85051402668611</v>
+      </c>
+      <c r="E37" t="n">
+        <v>69.01928600238982</v>
+      </c>
+      <c r="F37" t="n">
+        <v>68.00880779619443</v>
+      </c>
+      <c r="G37" t="n">
+        <v>68.88231276531772</v>
+      </c>
+      <c r="H37" t="n">
+        <v>56.59142950118547</v>
+      </c>
+      <c r="I37" t="n">
+        <v>39.94974873922602</v>
+      </c>
+      <c r="J37" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>1.0901</v>
+      </c>
+      <c r="B38" t="n">
+        <v>58.5954731696843</v>
+      </c>
+      <c r="C38" t="n">
+        <v>58.60215053263729</v>
+      </c>
+      <c r="D38" t="n">
+        <v>57.06293705795196</v>
+      </c>
+      <c r="E38" t="n">
+        <v>63.9444327460169</v>
+      </c>
+      <c r="F38" t="n">
+        <v>65.16354397721773</v>
+      </c>
+      <c r="G38" t="n">
+        <v>65.48919358086773</v>
+      </c>
+      <c r="H38" t="n">
+        <v>57.69731135678821</v>
+      </c>
+      <c r="I38" t="n">
+        <v>42.20874293631031</v>
+      </c>
+      <c r="J38" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1.1204</v>
+      </c>
+      <c r="B39" t="n">
+        <v>60.14704084197076</v>
+      </c>
+      <c r="C39" t="n">
+        <v>60.61068701790128</v>
+      </c>
+      <c r="D39" t="n">
+        <v>60.9534619700534</v>
+      </c>
+      <c r="E39" t="n">
+        <v>65.70247933384967</v>
+      </c>
+      <c r="F39" t="n">
+        <v>66.43824440682494</v>
+      </c>
+      <c r="G39" t="n">
+        <v>67.70334927729533</v>
+      </c>
+      <c r="H39" t="n">
+        <v>57.39308461761276</v>
+      </c>
+      <c r="I39" t="n">
+        <v>42.22797927025795</v>
+      </c>
+      <c r="J39" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1.1506</v>
+      </c>
+      <c r="B40" t="n">
+        <v>60.19215479581837</v>
+      </c>
+      <c r="C40" t="n">
+        <v>59.82382228531198</v>
+      </c>
+      <c r="D40" t="n">
+        <v>62.62683201305806</v>
+      </c>
+      <c r="E40" t="n">
+        <v>66.22406638505012</v>
+      </c>
+      <c r="F40" t="n">
+        <v>70.05851755027668</v>
+      </c>
+      <c r="G40" t="n">
+        <v>68.66163995729657</v>
+      </c>
+      <c r="H40" t="n">
+        <v>54.63359638754021</v>
+      </c>
+      <c r="I40" t="n">
+        <v>39.31660899219496</v>
+      </c>
+      <c r="J40" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1.1809</v>
+      </c>
+      <c r="B41" t="n">
+        <v>58.80947865917576</v>
+      </c>
+      <c r="C41" t="n">
+        <v>57.63066201591863</v>
+      </c>
+      <c r="D41" t="n">
+        <v>62.5974724338261</v>
+      </c>
+      <c r="E41" t="n">
+        <v>63.13474609655731</v>
+      </c>
+      <c r="F41" t="n">
+        <v>68.69578450268467</v>
+      </c>
+      <c r="G41" t="n">
+        <v>67.32760519439877</v>
+      </c>
+      <c r="H41" t="n">
+        <v>53.9722572460192</v>
+      </c>
+      <c r="I41" t="n">
+        <v>38.30782312482565</v>
+      </c>
+      <c r="J41" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1.2112</v>
+      </c>
+      <c r="B42" t="n">
+        <v>58.29008972675948</v>
+      </c>
+      <c r="C42" t="n">
+        <v>58.80149812233724</v>
+      </c>
+      <c r="D42" t="n">
+        <v>56.37510281924371</v>
+      </c>
+      <c r="E42" t="n">
+        <v>68.69424168194249</v>
+      </c>
+      <c r="F42" t="n">
+        <v>70.21573800524152</v>
+      </c>
+      <c r="G42" t="n">
+        <v>64.23992673492674</v>
+      </c>
+      <c r="H42" t="n">
+        <v>52.63496833255324</v>
+      </c>
+      <c r="I42" t="n">
+        <v>37.06915239107138</v>
+      </c>
+      <c r="J42" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1.2415</v>
+      </c>
+      <c r="B43" t="n">
+        <v>55.04652203320547</v>
+      </c>
+      <c r="C43" t="n">
+        <v>56.0741249092294</v>
+      </c>
+      <c r="D43" t="n">
+        <v>46.66304937101881</v>
+      </c>
+      <c r="E43" t="n">
+        <v>62.4900239375357</v>
+      </c>
+      <c r="F43" t="n">
+        <v>59.98780115388923</v>
+      </c>
+      <c r="G43" t="n">
+        <v>60.37569060274903</v>
+      </c>
+      <c r="H43" t="n">
+        <v>56.65680472880889</v>
+      </c>
+      <c r="I43" t="n">
+        <v>43.07815952920732</v>
+      </c>
+      <c r="J43" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1.2718</v>
+      </c>
+      <c r="B44" t="n">
+        <v>58.48648445172048</v>
+      </c>
+      <c r="C44" t="n">
+        <v>57.65829500738599</v>
+      </c>
+      <c r="D44" t="n">
+        <v>58.84253027763683</v>
+      </c>
+      <c r="E44" t="n">
+        <v>68.50519583832302</v>
+      </c>
+      <c r="F44" t="n">
+        <v>61.08979278087725</v>
+      </c>
+      <c r="G44" t="n">
+        <v>64.22018348124638</v>
+      </c>
+      <c r="H44" t="n">
+        <v>56.80861980007289</v>
+      </c>
+      <c r="I44" t="n">
+        <v>42.28077397650096</v>
+      </c>
+      <c r="J44" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="B45" t="n">
+        <v>60.50841788133845</v>
+      </c>
+      <c r="C45" t="n">
+        <v>58.51496120666913</v>
+      </c>
+      <c r="D45" t="n">
+        <v>63.95634378763534</v>
+      </c>
+      <c r="E45" t="n">
+        <v>72.06181374042563</v>
+      </c>
+      <c r="F45" t="n">
+        <v>66.56245114397446</v>
+      </c>
+      <c r="G45" t="n">
+        <v>67.17067582546935</v>
+      </c>
+      <c r="H45" t="n">
+        <v>55.73558003400172</v>
+      </c>
+      <c r="I45" t="n">
+        <v>39.55709943119349</v>
+      </c>
+      <c r="J45" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1.3323</v>
+      </c>
+      <c r="B46" t="n">
+        <v>56.08739300849862</v>
+      </c>
+      <c r="C46" t="n">
+        <v>57.28228227727911</v>
+      </c>
+      <c r="D46" t="n">
+        <v>50.12325389804476</v>
+      </c>
+      <c r="E46" t="n">
+        <v>65.80987351601371</v>
+      </c>
+      <c r="F46" t="n">
+        <v>62.18827929674391</v>
+      </c>
+      <c r="G46" t="n">
+        <v>62.33409610484002</v>
+      </c>
+      <c r="H46" t="n">
+        <v>56.34668128971517</v>
+      </c>
+      <c r="I46" t="n">
+        <v>38.52728467685369</v>
+      </c>
+      <c r="J46" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1.3626</v>
+      </c>
+      <c r="B47" t="n">
+        <v>56.29006417692517</v>
+      </c>
+      <c r="C47" t="n">
+        <v>57.91889823524634</v>
+      </c>
+      <c r="D47" t="n">
+        <v>55.01113585247315</v>
+      </c>
+      <c r="E47" t="n">
+        <v>65.15058389174578</v>
+      </c>
+      <c r="F47" t="n">
+        <v>60.99920697358944</v>
+      </c>
+      <c r="G47" t="n">
+        <v>62.46472247853425</v>
+      </c>
+      <c r="H47" t="n">
+        <v>54.32974830429315</v>
+      </c>
+      <c r="I47" t="n">
+        <v>38.1561535025941</v>
+      </c>
+      <c r="J47" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1.3929</v>
+      </c>
+      <c r="B48" t="n">
+        <v>57.35905953331747</v>
+      </c>
+      <c r="C48" t="n">
+        <v>56.18479880274572</v>
+      </c>
+      <c r="D48" t="n">
+        <v>56.86600220984842</v>
+      </c>
+      <c r="E48" t="n">
+        <v>62.75478690050254</v>
+      </c>
+      <c r="F48" t="n">
+        <v>63.50502512062715</v>
+      </c>
+      <c r="G48" t="n">
+        <v>65.74839301611959</v>
+      </c>
+      <c r="H48" t="n">
+        <v>56.91249193232598</v>
+      </c>
+      <c r="I48" t="n">
+        <v>39.5419187510528</v>
+      </c>
+      <c r="J48" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1.4232</v>
+      </c>
+      <c r="B49" t="n">
+        <v>56.92843027608999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>57.32202138931525</v>
+      </c>
+      <c r="D49" t="n">
+        <v>55.99999999501082</v>
+      </c>
+      <c r="E49" t="n">
+        <v>61.90377864460393</v>
+      </c>
+      <c r="F49" t="n">
+        <v>62.53352263263979</v>
+      </c>
+      <c r="G49" t="n">
+        <v>67.19999999500025</v>
+      </c>
+      <c r="H49" t="n">
+        <v>53.76068375578173</v>
+      </c>
+      <c r="I49" t="n">
+        <v>39.77900552027825</v>
+      </c>
+      <c r="J49" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1.4534</v>
+      </c>
+      <c r="B50" t="n">
+        <v>56.08875262424612</v>
+      </c>
+      <c r="C50" t="n">
+        <v>56.33021158016972</v>
+      </c>
+      <c r="D50" t="n">
+        <v>49.45887445387501</v>
+      </c>
+      <c r="E50" t="n">
+        <v>67.05202311638483</v>
+      </c>
+      <c r="F50" t="n">
+        <v>63.86658430630133</v>
+      </c>
+      <c r="G50" t="n">
+        <v>61.59292034899586</v>
+      </c>
+      <c r="H50" t="n">
+        <v>53.36622468412039</v>
+      </c>
+      <c r="I50" t="n">
+        <v>40.95442987987574</v>
+      </c>
+      <c r="J50" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1.4837</v>
+      </c>
+      <c r="B51" t="n">
+        <v>54.49835790802814</v>
+      </c>
+      <c r="C51" t="n">
+        <v>59.40444778994648</v>
+      </c>
+      <c r="D51" t="n">
+        <v>48.20773355415226</v>
+      </c>
+      <c r="E51" t="n">
+        <v>59.84515588536721</v>
+      </c>
+      <c r="F51" t="n">
+        <v>60.81474296299994</v>
+      </c>
+      <c r="G51" t="n">
+        <v>58.62310384563918</v>
+      </c>
+      <c r="H51" t="n">
+        <v>55.16259717022126</v>
+      </c>
+      <c r="I51" t="n">
+        <v>39.43072414787071</v>
+      </c>
+      <c r="J51" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="B52" t="n">
+        <v>57.77925070366962</v>
+      </c>
+      <c r="C52" t="n">
+        <v>60.89965397424192</v>
+      </c>
+      <c r="D52" t="n">
+        <v>56.20166141010077</v>
+      </c>
+      <c r="E52" t="n">
+        <v>64.10365335101346</v>
+      </c>
+      <c r="F52" t="n">
+        <v>60.70804889165152</v>
+      </c>
+      <c r="G52" t="n">
+        <v>67.0675968196331</v>
+      </c>
+      <c r="H52" t="n">
+        <v>55.99815795059209</v>
+      </c>
+      <c r="I52" t="n">
+        <v>39.47598252845454</v>
+      </c>
+      <c r="J52" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1.5443</v>
+      </c>
+      <c r="B53" t="n">
+        <v>58.20980531474014</v>
+      </c>
+      <c r="C53" t="n">
+        <v>57.07898658217933</v>
+      </c>
+      <c r="D53" t="n">
+        <v>57.23886865925532</v>
+      </c>
+      <c r="E53" t="n">
+        <v>69.49711458692633</v>
+      </c>
+      <c r="F53" t="n">
+        <v>62.74509803421456</v>
+      </c>
+      <c r="G53" t="n">
+        <v>64.70588234793901</v>
+      </c>
+      <c r="H53" t="n">
+        <v>54.8663101555275</v>
+      </c>
+      <c r="I53" t="n">
+        <v>41.33637683713892</v>
+      </c>
+      <c r="J53" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1.5746</v>
+      </c>
+      <c r="B54" t="n">
+        <v>57.68435865110819</v>
+      </c>
+      <c r="C54" t="n">
+        <v>56.64122136904661</v>
+      </c>
+      <c r="D54" t="n">
+        <v>61.13487310595009</v>
+      </c>
+      <c r="E54" t="n">
+        <v>70.69182389438532</v>
+      </c>
+      <c r="F54" t="n">
+        <v>61.51125401429795</v>
+      </c>
+      <c r="G54" t="n">
+        <v>66.14397718672966</v>
+      </c>
+      <c r="H54" t="n">
+        <v>49.90140354475572</v>
+      </c>
+      <c r="I54" t="n">
+        <v>37.765957442592</v>
+      </c>
+      <c r="J54" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>1.6048</v>
+      </c>
+      <c r="B55" t="n">
+        <v>56.21158101739068</v>
+      </c>
+      <c r="C55" t="n">
+        <v>59.24513914864112</v>
+      </c>
+      <c r="D55" t="n">
+        <v>56.33162975084631</v>
+      </c>
+      <c r="E55" t="n">
+        <v>68.42767295098919</v>
+      </c>
+      <c r="F55" t="n">
+        <v>60.21886063227644</v>
+      </c>
+      <c r="G55" t="n">
+        <v>64.40037770982245</v>
+      </c>
+      <c r="H55" t="n">
+        <v>51.40423572270129</v>
+      </c>
+      <c r="I55" t="n">
+        <v>33.45315120645795</v>
+      </c>
+      <c r="J55" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1.6351</v>
+      </c>
+      <c r="B56" t="n">
+        <v>57.84873948708674</v>
+      </c>
+      <c r="C56" t="n">
+        <v>59.27063339231553</v>
+      </c>
+      <c r="D56" t="n">
+        <v>57.91549295276606</v>
+      </c>
+      <c r="E56" t="n">
+        <v>70.29375258085729</v>
+      </c>
+      <c r="F56" t="n">
+        <v>66.20152522622786</v>
+      </c>
+      <c r="G56" t="n">
+        <v>65.07291417142707</v>
+      </c>
+      <c r="H56" t="n">
+        <v>52.39455937345653</v>
+      </c>
+      <c r="I56" t="n">
+        <v>33.79229871255681</v>
+      </c>
+      <c r="J56" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1.6654</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56.80517431868363</v>
+      </c>
+      <c r="C57" t="n">
+        <v>57.08076783273795</v>
+      </c>
+      <c r="D57" t="n">
+        <v>59.63149078228322</v>
+      </c>
+      <c r="E57" t="n">
+        <v>68.71565234590685</v>
+      </c>
+      <c r="F57" t="n">
+        <v>55.4739965591092</v>
+      </c>
+      <c r="G57" t="n">
+        <v>66.49746192393232</v>
+      </c>
+      <c r="H57" t="n">
+        <v>53.63525363042405</v>
+      </c>
+      <c r="I57" t="n">
+        <v>36.60159715639184</v>
+      </c>
+      <c r="J57" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1.6957</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56.91764090973568</v>
+      </c>
+      <c r="C58" t="n">
+        <v>57.50439366811895</v>
+      </c>
+      <c r="D58" t="n">
+        <v>54.78475458782069</v>
+      </c>
+      <c r="E58" t="n">
+        <v>65.70008284504928</v>
+      </c>
+      <c r="F58" t="n">
+        <v>65.36066818026943</v>
+      </c>
+      <c r="G58" t="n">
+        <v>63.97140942096355</v>
+      </c>
+      <c r="H58" t="n">
+        <v>53.64605543219481</v>
+      </c>
+      <c r="I58" t="n">
+        <v>37.45612223373305</v>
+      </c>
+      <c r="J58" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="B59" t="n">
+        <v>60.14119858506544</v>
+      </c>
+      <c r="C59" t="n">
+        <v>59.77859778097348</v>
+      </c>
+      <c r="D59" t="n">
+        <v>59.97751545314042</v>
+      </c>
+      <c r="E59" t="n">
+        <v>71.3440750510897</v>
+      </c>
+      <c r="F59" t="n">
+        <v>69.59100842459542</v>
+      </c>
+      <c r="G59" t="n">
+        <v>69.05537458783103</v>
+      </c>
+      <c r="H59" t="n">
+        <v>51.93469022108754</v>
+      </c>
+      <c r="I59" t="n">
+        <v>39.30712857674056</v>
+      </c>
+      <c r="J59" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1.7562</v>
+      </c>
+      <c r="B60" t="n">
+        <v>57.84411285180381</v>
+      </c>
+      <c r="C60" t="n">
+        <v>57.97972211290896</v>
+      </c>
+      <c r="D60" t="n">
+        <v>63.44175701474954</v>
+      </c>
+      <c r="E60" t="n">
+        <v>68.44059405441179</v>
+      </c>
+      <c r="F60" t="n">
+        <v>64.13555066961449</v>
+      </c>
+      <c r="G60" t="n">
+        <v>69.37821411374389</v>
+      </c>
+      <c r="H60" t="n">
+        <v>48.37962962490671</v>
+      </c>
+      <c r="I60" t="n">
+        <v>33.15332237229134</v>
+      </c>
+      <c r="J60" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>1.7865</v>
+      </c>
+      <c r="B61" t="n">
+        <v>53.31437156935489</v>
+      </c>
+      <c r="C61" t="n">
+        <v>54.70756062267721</v>
+      </c>
+      <c r="D61" t="n">
+        <v>52.48498087976566</v>
+      </c>
+      <c r="E61" t="n">
+        <v>62.10547749449242</v>
+      </c>
+      <c r="F61" t="n">
+        <v>56.49771040081099</v>
+      </c>
+      <c r="G61" t="n">
+        <v>64.56728590347605</v>
+      </c>
+      <c r="H61" t="n">
+        <v>44.79131319507912</v>
+      </c>
+      <c r="I61" t="n">
+        <v>38.04627248918278</v>
+      </c>
+      <c r="J61" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>1.8168</v>
+      </c>
+      <c r="B62" t="n">
+        <v>56.62059676904423</v>
+      </c>
+      <c r="C62" t="n">
+        <v>61.73112338357748</v>
+      </c>
+      <c r="D62" t="n">
+        <v>56.55669530967567</v>
+      </c>
+      <c r="E62" t="n">
+        <v>69.18699186491938</v>
+      </c>
+      <c r="F62" t="n">
+        <v>68.40043866020299</v>
+      </c>
+      <c r="G62" t="n">
+        <v>67.19817767153879</v>
+      </c>
+      <c r="H62" t="n">
+        <v>42.6058336122931</v>
+      </c>
+      <c r="I62" t="n">
+        <v>30.66491688110222</v>
+      </c>
+      <c r="J62" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1.8471</v>
+      </c>
+      <c r="B63" t="n">
+        <v>51.72222189476915</v>
+      </c>
+      <c r="C63" t="n">
+        <v>54.40356744204178</v>
+      </c>
+      <c r="D63" t="n">
+        <v>46.90590561807986</v>
+      </c>
+      <c r="E63" t="n">
+        <v>57.11270577805008</v>
+      </c>
+      <c r="F63" t="n">
+        <v>54.49735449235293</v>
+      </c>
+      <c r="G63" t="n">
+        <v>64.10018552375466</v>
+      </c>
+      <c r="H63" t="n">
+        <v>51.12873703023506</v>
+      </c>
+      <c r="I63" t="n">
+        <v>33.90709737886971</v>
+      </c>
+      <c r="J63" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1.8774</v>
+      </c>
+      <c r="B64" t="n">
+        <v>58.15371102536269</v>
+      </c>
+      <c r="C64" t="n">
+        <v>59.73534971144409</v>
+      </c>
+      <c r="D64" t="n">
+        <v>61.04039844547886</v>
+      </c>
+      <c r="E64" t="n">
+        <v>68.13097416624352</v>
+      </c>
+      <c r="F64" t="n">
+        <v>66.45953083234457</v>
+      </c>
+      <c r="G64" t="n">
+        <v>68.51980541542849</v>
+      </c>
+      <c r="H64" t="n">
+        <v>51.04706146784458</v>
+      </c>
+      <c r="I64" t="n">
+        <v>32.14285713875478</v>
+      </c>
+      <c r="J64" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1.9076</v>
+      </c>
+      <c r="B65" t="n">
+        <v>59.62116430741594</v>
+      </c>
+      <c r="C65" t="n">
+        <v>60.64329598343333</v>
+      </c>
+      <c r="D65" t="n">
+        <v>61.58868334647044</v>
+      </c>
+      <c r="E65" t="n">
+        <v>71.1952191185033</v>
+      </c>
+      <c r="F65" t="n">
+        <v>66.66666666166677</v>
+      </c>
+      <c r="G65" t="n">
+        <v>67.54877774786611</v>
+      </c>
+      <c r="H65" t="n">
+        <v>53.48080676155158</v>
+      </c>
+      <c r="I65" t="n">
+        <v>36.22470053242005</v>
+      </c>
+      <c r="J65" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>1.9379</v>
+      </c>
+      <c r="B66" t="n">
+        <v>58.66397538531339</v>
+      </c>
+      <c r="C66" t="n">
+        <v>59.00184842383113</v>
+      </c>
+      <c r="D66" t="n">
+        <v>60.98033785155834</v>
+      </c>
+      <c r="E66" t="n">
+        <v>69.42857142357329</v>
+      </c>
+      <c r="F66" t="n">
+        <v>65.03375725673547</v>
+      </c>
+      <c r="G66" t="n">
+        <v>68.17661861774079</v>
+      </c>
+      <c r="H66" t="n">
+        <v>54.05279139918172</v>
+      </c>
+      <c r="I66" t="n">
+        <v>33.97390272457297</v>
+      </c>
+      <c r="J66" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>1.9682</v>
+      </c>
+      <c r="B67" t="n">
+        <v>55.28555908748788</v>
+      </c>
+      <c r="C67" t="n">
+        <v>61.24553748014644</v>
+      </c>
+      <c r="D67" t="n">
+        <v>58.6157789753757</v>
+      </c>
+      <c r="E67" t="n">
+        <v>72.29066610484688</v>
+      </c>
+      <c r="F67" t="n">
+        <v>60.74913439852477</v>
+      </c>
+      <c r="G67" t="n">
+        <v>65.77437858008463</v>
+      </c>
+      <c r="H67" t="n">
+        <v>50.27624308950205</v>
+      </c>
+      <c r="I67" t="n">
+        <v>18.0471749839347</v>
+      </c>
+      <c r="J67" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>1.9985</v>
+      </c>
+      <c r="B68" t="n">
+        <v>55.30186227948874</v>
+      </c>
+      <c r="C68" t="n">
+        <v>59.49008498084051</v>
+      </c>
+      <c r="D68" t="n">
+        <v>56.17855198193714</v>
+      </c>
+      <c r="E68" t="n">
+        <v>73.2167972624283</v>
+      </c>
+      <c r="F68" t="n">
+        <v>51.14281330992447</v>
+      </c>
+      <c r="G68" t="n">
+        <v>61.83944231567149</v>
+      </c>
+      <c r="H68" t="n">
+        <v>54.13940897332628</v>
+      </c>
+      <c r="I68" t="n">
+        <v>31.10593713229305</v>
+      </c>
+      <c r="J68" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>55.35013071560454</v>
+      </c>
+      <c r="C69" t="n">
+        <v>60.21505375843643</v>
+      </c>
+      <c r="D69" t="n">
+        <v>56.38594533801358</v>
+      </c>
+      <c r="E69" t="n">
+        <v>73.82852465225648</v>
+      </c>
+      <c r="F69" t="n">
+        <v>53.25610519224377</v>
+      </c>
+      <c r="G69" t="n">
+        <v>63.42031686359002</v>
+      </c>
+      <c r="H69" t="n">
+        <v>51.53917909977679</v>
+      </c>
+      <c r="I69" t="n">
+        <v>28.80579010491465</v>
+      </c>
+      <c r="J69" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>2.0288</v>
+      </c>
+      <c r="B70" t="n">
+        <v>54.85964190807026</v>
+      </c>
+      <c r="C70" t="n">
+        <v>57.13213212712896</v>
+      </c>
+      <c r="D70" t="n">
+        <v>54.14607358094707</v>
+      </c>
+      <c r="E70" t="n">
+        <v>69.20275191729824</v>
+      </c>
+      <c r="F70" t="n">
+        <v>57.54483611126292</v>
+      </c>
+      <c r="G70" t="n">
+        <v>61.1634858538173</v>
+      </c>
+      <c r="H70" t="n">
+        <v>53.78357293622469</v>
+      </c>
+      <c r="I70" t="n">
+        <v>31.04464082981264</v>
+      </c>
+      <c r="J70" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="B71" t="n">
+        <v>55.64758174764103</v>
+      </c>
+      <c r="C71" t="n">
+        <v>58.16403310259681</v>
+      </c>
+      <c r="D71" t="n">
+        <v>55.47030405868094</v>
+      </c>
+      <c r="E71" t="n">
+        <v>71.05911329549637</v>
+      </c>
+      <c r="F71" t="n">
+        <v>60.05345071029561</v>
+      </c>
+      <c r="G71" t="n">
+        <v>63.70929683312833</v>
+      </c>
+      <c r="H71" t="n">
+        <v>51.75531289892522</v>
+      </c>
+      <c r="I71" t="n">
+        <v>29.32156133436394</v>
+      </c>
+      <c r="J71" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>2.0893</v>
+      </c>
+      <c r="B72" t="n">
+        <v>53.5990385170094</v>
+      </c>
+      <c r="C72" t="n">
+        <v>56.98412697914912</v>
+      </c>
+      <c r="D72" t="n">
+        <v>57.15905868512946</v>
+      </c>
+      <c r="E72" t="n">
+        <v>64.90644490145463</v>
+      </c>
+      <c r="F72" t="n">
+        <v>62.64413204364953</v>
+      </c>
+      <c r="G72" t="n">
+        <v>61.86113789278287</v>
+      </c>
+      <c r="H72" t="n">
+        <v>47.11827697771703</v>
+      </c>
+      <c r="I72" t="n">
+        <v>24.52009213918315</v>
+      </c>
+      <c r="J72" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>2.1196</v>
+      </c>
+      <c r="B73" t="n">
+        <v>59.8103527789671</v>
+      </c>
+      <c r="C73" t="n">
+        <v>61.85800603729363</v>
+      </c>
+      <c r="D73" t="n">
+        <v>63.47992351316718</v>
+      </c>
+      <c r="E73" t="n">
+        <v>72.33528107499056</v>
+      </c>
+      <c r="F73" t="n">
+        <v>61.37095536994109</v>
+      </c>
+      <c r="G73" t="n">
+        <v>67.19257540102997</v>
+      </c>
+      <c r="H73" t="n">
+        <v>55.10182321718664</v>
+      </c>
+      <c r="I73" t="n">
+        <v>37.33390483916065</v>
+      </c>
+      <c r="J73" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>2.1499</v>
+      </c>
+      <c r="B74" t="n">
+        <v>54.79778782656799</v>
+      </c>
+      <c r="C74" t="n">
+        <v>57.21966205337471</v>
+      </c>
+      <c r="D74" t="n">
+        <v>53.27413983962744</v>
+      </c>
+      <c r="E74" t="n">
+        <v>66.29879419079234</v>
+      </c>
+      <c r="F74" t="n">
+        <v>58.56185252394528</v>
+      </c>
+      <c r="G74" t="n">
+        <v>64.87488414699035</v>
+      </c>
+      <c r="H74" t="n">
+        <v>52.61853811886665</v>
+      </c>
+      <c r="I74" t="n">
+        <v>30.73664391237914</v>
+      </c>
+      <c r="J74" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>2.1802</v>
+      </c>
+      <c r="B75" t="n">
+        <v>55.44723822541731</v>
+      </c>
+      <c r="C75" t="n">
+        <v>60.6130268149252</v>
+      </c>
+      <c r="D75" t="n">
+        <v>55.88732393868167</v>
+      </c>
+      <c r="E75" t="n">
+        <v>64.80607428189086</v>
+      </c>
+      <c r="F75" t="n">
+        <v>61.0391636710789</v>
+      </c>
+      <c r="G75" t="n">
+        <v>66.38908165125514</v>
+      </c>
+      <c r="H75" t="n">
+        <v>50.29981549342136</v>
+      </c>
+      <c r="I75" t="n">
+        <v>29.09618172666799</v>
+      </c>
+      <c r="J75" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>2.2104</v>
+      </c>
+      <c r="B76" t="n">
+        <v>53.40041991193172</v>
+      </c>
+      <c r="C76" t="n">
+        <v>55.50764405616611</v>
+      </c>
+      <c r="D76" t="n">
+        <v>51.97866965541592</v>
+      </c>
+      <c r="E76" t="n">
+        <v>61.6604088394005</v>
+      </c>
+      <c r="F76" t="n">
+        <v>58.94671041850226</v>
+      </c>
+      <c r="G76" t="n">
+        <v>62.83290124411332</v>
+      </c>
+      <c r="H76" t="n">
+        <v>52.14088397316168</v>
+      </c>
+      <c r="I76" t="n">
+        <v>30.73572119676221</v>
+      </c>
+      <c r="J76" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>2.2407</v>
+      </c>
+      <c r="B77" t="n">
+        <v>54.83788537048533</v>
+      </c>
+      <c r="C77" t="n">
+        <v>56.03479521065577</v>
+      </c>
+      <c r="D77" t="n">
+        <v>51.28205127705421</v>
+      </c>
+      <c r="E77" t="n">
+        <v>65.80540976488214</v>
+      </c>
+      <c r="F77" t="n">
+        <v>60.28444715817371</v>
+      </c>
+      <c r="G77" t="n">
+        <v>62.13151926937922</v>
+      </c>
+      <c r="H77" t="n">
+        <v>51.55744110269711</v>
+      </c>
+      <c r="I77" t="n">
+        <v>36.76953381055518</v>
+      </c>
+      <c r="J77" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>2.271</v>
+      </c>
+      <c r="B78" t="n">
+        <v>57.56451970765018</v>
+      </c>
+      <c r="C78" t="n">
+        <v>55.74607806869258</v>
+      </c>
+      <c r="D78" t="n">
+        <v>62.33480175712056</v>
+      </c>
+      <c r="E78" t="n">
+        <v>71.46612739641493</v>
+      </c>
+      <c r="F78" t="n">
+        <v>61.17096018235205</v>
+      </c>
+      <c r="G78" t="n">
+        <v>68.24775500305755</v>
+      </c>
+      <c r="H78" t="n">
+        <v>49.77895667066957</v>
+      </c>
+      <c r="I78" t="n">
+        <v>34.20695887524412</v>
+      </c>
+      <c r="J78" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>2.3013</v>
+      </c>
+      <c r="B79" t="n">
+        <v>57.99624154169906</v>
+      </c>
+      <c r="C79" t="n">
+        <v>60.97738876231963</v>
+      </c>
+      <c r="D79" t="n">
+        <v>56.50969528586802</v>
+      </c>
+      <c r="E79" t="n">
+        <v>68.20314092912368</v>
+      </c>
+      <c r="F79" t="n">
+        <v>65.7915299215494</v>
+      </c>
+      <c r="G79" t="n">
+        <v>65.54084892243117</v>
+      </c>
+      <c r="H79" t="n">
+        <v>51.30454859836363</v>
+      </c>
+      <c r="I79" t="n">
+        <v>37.64653837223792</v>
+      </c>
+      <c r="J79" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>2.3316</v>
+      </c>
+      <c r="B80" t="n">
+        <v>57.19913726360215</v>
+      </c>
+      <c r="C80" t="n">
+        <v>55.49510336822961</v>
+      </c>
+      <c r="D80" t="n">
+        <v>60.644450559589</v>
+      </c>
+      <c r="E80" t="n">
+        <v>68.97115974137201</v>
+      </c>
+      <c r="F80" t="n">
+        <v>63.4289238309525</v>
+      </c>
+      <c r="G80" t="n">
+        <v>64.30185268366189</v>
+      </c>
+      <c r="H80" t="n">
+        <v>49.14101233240433</v>
+      </c>
+      <c r="I80" t="n">
+        <v>38.4114583290058</v>
+      </c>
+      <c r="J80" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>2.3618</v>
+      </c>
+      <c r="B81" t="n">
+        <v>55.77905103401608</v>
+      </c>
+      <c r="C81" t="n">
+        <v>55.38809343885593</v>
+      </c>
+      <c r="D81" t="n">
+        <v>57.80508237423749</v>
+      </c>
+      <c r="E81" t="n">
+        <v>70.45081966713433</v>
+      </c>
+      <c r="F81" t="n">
+        <v>56.07917058877874</v>
+      </c>
+      <c r="G81" t="n">
+        <v>63.96500114627671</v>
+      </c>
+      <c r="H81" t="n">
+        <v>50.92448206245369</v>
+      </c>
+      <c r="I81" t="n">
+        <v>35.8407079603756</v>
+      </c>
+      <c r="J81" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>2.3921</v>
+      </c>
+      <c r="B82" t="n">
+        <v>56.06303581817641</v>
+      </c>
+      <c r="C82" t="n">
+        <v>58.49277625428475</v>
+      </c>
+      <c r="D82" t="n">
+        <v>57.66071933798597</v>
+      </c>
+      <c r="E82" t="n">
+        <v>64.14542414879439</v>
+      </c>
+      <c r="F82" t="n">
+        <v>66.54478975736468</v>
+      </c>
+      <c r="G82" t="n">
+        <v>59.91805253778222</v>
+      </c>
+      <c r="H82" t="n">
+        <v>47.48768472420565</v>
+      </c>
+      <c r="I82" t="n">
+        <v>38.19180396681718</v>
+      </c>
+      <c r="J82" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>2.4224</v>
+      </c>
+      <c r="B83" t="n">
+        <v>56.96073848273902</v>
+      </c>
+      <c r="C83" t="n">
+        <v>56.73394494912457</v>
+      </c>
+      <c r="D83" t="n">
+        <v>55.80884371925687</v>
+      </c>
+      <c r="E83" t="n">
+        <v>64.06662603603262</v>
+      </c>
+      <c r="F83" t="n">
+        <v>67.14575847023654</v>
+      </c>
+      <c r="G83" t="n">
+        <v>64.70046082449171</v>
+      </c>
+      <c r="H83" t="n">
+        <v>52.36579206892038</v>
+      </c>
+      <c r="I83" t="n">
+        <v>37.9037433111105</v>
+      </c>
+      <c r="J83" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>2.4527</v>
+      </c>
+      <c r="B84" t="n">
+        <v>56.04479899235179</v>
+      </c>
+      <c r="C84" t="n">
+        <v>58.49200304145845</v>
+      </c>
+      <c r="D84" t="n">
+        <v>56.52173912544748</v>
+      </c>
+      <c r="E84" t="n">
+        <v>66.23993392025935</v>
+      </c>
+      <c r="F84" t="n">
+        <v>60.94936708360805</v>
+      </c>
+      <c r="G84" t="n">
+        <v>64.96638070448064</v>
+      </c>
+      <c r="H84" t="n">
+        <v>51.36159944372236</v>
+      </c>
+      <c r="I84" t="n">
+        <v>33.78256962748623</v>
+      </c>
+      <c r="J84" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="B85" t="n">
+        <v>55.32293127778421</v>
+      </c>
+      <c r="C85" t="n">
+        <v>57.20637272563675</v>
+      </c>
+      <c r="D85" t="n">
+        <v>52.39016302346917</v>
+      </c>
+      <c r="E85" t="n">
+        <v>64.94570784175605</v>
+      </c>
+      <c r="F85" t="n">
+        <v>61.80163213561415</v>
+      </c>
+      <c r="G85" t="n">
+        <v>60.09174311426582</v>
+      </c>
+      <c r="H85" t="n">
+        <v>53.90246648917859</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36.92243361456896</v>
+      </c>
+      <c r="J85" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>2.5132</v>
+      </c>
+      <c r="B86" t="n">
+        <v>54.18418388373193</v>
+      </c>
+      <c r="C86" t="n">
+        <v>56.57400450288581</v>
+      </c>
+      <c r="D86" t="n">
+        <v>50.82471344203753</v>
+      </c>
+      <c r="E86" t="n">
+        <v>66.99937616469161</v>
+      </c>
+      <c r="F86" t="n">
+        <v>62.46178599661465</v>
+      </c>
+      <c r="G86" t="n">
+        <v>62.00607902235278</v>
+      </c>
+      <c r="H86" t="n">
+        <v>49.92944496239991</v>
+      </c>
+      <c r="I86" t="n">
+        <v>30.49388309514117</v>
+      </c>
+      <c r="J86" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>2.5435</v>
+      </c>
+      <c r="B87" t="n">
+        <v>55.91439973908753</v>
+      </c>
+      <c r="C87" t="n">
+        <v>57.9028527320901</v>
+      </c>
+      <c r="D87" t="n">
+        <v>56.35077792995917</v>
+      </c>
+      <c r="E87" t="n">
+        <v>68.32455215518638</v>
+      </c>
+      <c r="F87" t="n">
+        <v>65.91748273701781</v>
+      </c>
+      <c r="G87" t="n">
+        <v>64.35969867672961</v>
+      </c>
+      <c r="H87" t="n">
+        <v>47.88391777051343</v>
+      </c>
+      <c r="I87" t="n">
+        <v>30.66151617211625</v>
+      </c>
+      <c r="J87" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>2.5738</v>
+      </c>
+      <c r="B88" t="n">
+        <v>55.95443234513222</v>
+      </c>
+      <c r="C88" t="n">
+        <v>58.68352546914976</v>
+      </c>
+      <c r="D88" t="n">
+        <v>53.10859352913367</v>
+      </c>
+      <c r="E88" t="n">
+        <v>66.91312383973613</v>
+      </c>
+      <c r="F88" t="n">
+        <v>64.12688539384742</v>
+      </c>
+      <c r="G88" t="n">
+        <v>62.83367555968265</v>
+      </c>
+      <c r="H88" t="n">
+        <v>52.34961320390639</v>
+      </c>
+      <c r="I88" t="n">
+        <v>33.66560942046952</v>
+      </c>
+      <c r="J88" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>2.6041</v>
+      </c>
+      <c r="B89" t="n">
+        <v>57.17956523078252</v>
+      </c>
+      <c r="C89" t="n">
+        <v>56.71313279030063</v>
+      </c>
+      <c r="D89" t="n">
+        <v>56.74547982811309</v>
+      </c>
+      <c r="E89" t="n">
+        <v>66.78921568127674</v>
+      </c>
+      <c r="F89" t="n">
+        <v>68.58853181604533</v>
+      </c>
+      <c r="G89" t="n">
+        <v>63.74829000868097</v>
+      </c>
+      <c r="H89" t="n">
+        <v>53.46888615315611</v>
+      </c>
+      <c r="I89" t="n">
+        <v>34.20342033790479</v>
+      </c>
+      <c r="J89" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>2.6344</v>
+      </c>
+      <c r="B90" t="n">
+        <v>56.98841500037821</v>
+      </c>
+      <c r="C90" t="n">
+        <v>58.46492838280351</v>
+      </c>
+      <c r="D90" t="n">
+        <v>57.95170690591782</v>
+      </c>
+      <c r="E90" t="n">
+        <v>71.38832997487769</v>
+      </c>
+      <c r="F90" t="n">
+        <v>64.92278600193301</v>
+      </c>
+      <c r="G90" t="n">
+        <v>61.97570478528176</v>
+      </c>
+      <c r="H90" t="n">
+        <v>50.94900525479004</v>
+      </c>
+      <c r="I90" t="n">
+        <v>33.26644369704366</v>
+      </c>
+      <c r="J90" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>2.6646</v>
+      </c>
+      <c r="B91" t="n">
+        <v>57.6091675954785</v>
+      </c>
+      <c r="C91" t="n">
+        <v>57.60495525998922</v>
+      </c>
+      <c r="D91" t="n">
+        <v>61.14474407866022</v>
+      </c>
+      <c r="E91" t="n">
+        <v>70.31945005565444</v>
+      </c>
+      <c r="F91" t="n">
+        <v>64.57133965580408</v>
+      </c>
+      <c r="G91" t="n">
+        <v>63.68816958697744</v>
+      </c>
+      <c r="H91" t="n">
+        <v>48.86214441527179</v>
+      </c>
+      <c r="I91" t="n">
+        <v>37.07337011599234</v>
+      </c>
+      <c r="J91" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>2.6949</v>
+      </c>
+      <c r="B92" t="n">
+        <v>55.92473270762915</v>
+      </c>
+      <c r="C92" t="n">
+        <v>56.99745546573523</v>
+      </c>
+      <c r="D92" t="n">
+        <v>55.59954750633486</v>
+      </c>
+      <c r="E92" t="n">
+        <v>67.94338051124676</v>
+      </c>
+      <c r="F92" t="n">
+        <v>65.58051249104579</v>
+      </c>
+      <c r="G92" t="n">
+        <v>62.68656715917661</v>
+      </c>
+      <c r="H92" t="n">
+        <v>51.39108798435714</v>
+      </c>
+      <c r="I92" t="n">
+        <v>31.27457783550761</v>
+      </c>
+      <c r="J92" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>2.7252</v>
+      </c>
+      <c r="B93" t="n">
+        <v>57.16082434398177</v>
+      </c>
+      <c r="C93" t="n">
+        <v>57.52380951880966</v>
+      </c>
+      <c r="D93" t="n">
+        <v>60.55571468996304</v>
+      </c>
+      <c r="E93" t="n">
+        <v>68.80332985973439</v>
+      </c>
+      <c r="F93" t="n">
+        <v>64.78116605598913</v>
+      </c>
+      <c r="G93" t="n">
+        <v>64.07582937888371</v>
+      </c>
+      <c r="H93" t="n">
+        <v>53.45310312175878</v>
+      </c>
+      <c r="I93" t="n">
+        <v>30.93281778273364</v>
+      </c>
+      <c r="J93" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>2.7555</v>
+      </c>
+      <c r="B94" t="n">
+        <v>56.04290448006256</v>
+      </c>
+      <c r="C94" t="n">
+        <v>56.42135641635535</v>
+      </c>
+      <c r="D94" t="n">
+        <v>56.32471503532264</v>
+      </c>
+      <c r="E94" t="n">
+        <v>66.19144602351462</v>
+      </c>
+      <c r="F94" t="n">
+        <v>64.78656186893863</v>
+      </c>
+      <c r="G94" t="n">
+        <v>63.05806152634204</v>
+      </c>
+      <c r="H94" t="n">
+        <v>51.7127574778752</v>
+      </c>
+      <c r="I94" t="n">
+        <v>33.80543301208949</v>
+      </c>
+      <c r="J94" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2.7858</v>
+      </c>
+      <c r="B95" t="n">
+        <v>51.6532047840649</v>
+      </c>
+      <c r="C95" t="n">
+        <v>53.06265312766725</v>
+      </c>
+      <c r="D95" t="n">
+        <v>52.75362318340302</v>
+      </c>
+      <c r="E95" t="n">
+        <v>57.39373378066953</v>
+      </c>
+      <c r="F95" t="n">
+        <v>58.99025685949098</v>
+      </c>
+      <c r="G95" t="n">
+        <v>55.08326029300371</v>
+      </c>
+      <c r="H95" t="n">
+        <v>48.4172888792895</v>
+      </c>
+      <c r="I95" t="n">
+        <v>35.87161736493031</v>
+      </c>
+      <c r="J95" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="B96" t="n">
+        <v>54.5822704255358</v>
+      </c>
+      <c r="C96" t="n">
+        <v>56.53761869477749</v>
+      </c>
+      <c r="D96" t="n">
+        <v>54.702763042739</v>
+      </c>
+      <c r="E96" t="n">
+        <v>67.89290823125825</v>
+      </c>
+      <c r="F96" t="n">
+        <v>64.20287613540316</v>
+      </c>
+      <c r="G96" t="n">
+        <v>61.91819463533561</v>
+      </c>
+      <c r="H96" t="n">
+        <v>46.94487623596553</v>
+      </c>
+      <c r="I96" t="n">
+        <v>29.87665600327157</v>
+      </c>
+      <c r="J96" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>2.8463</v>
+      </c>
+      <c r="B97" t="n">
+        <v>54.85997140841822</v>
+      </c>
+      <c r="C97" t="n">
+        <v>56.86421604901025</v>
+      </c>
+      <c r="D97" t="n">
+        <v>48.85452462275411</v>
+      </c>
+      <c r="E97" t="n">
+        <v>65.20084566098208</v>
+      </c>
+      <c r="F97" t="n">
+        <v>62.93572113347469</v>
+      </c>
+      <c r="G97" t="n">
+        <v>62.60504201180392</v>
+      </c>
+      <c r="H97" t="n">
+        <v>53.4961900444972</v>
+      </c>
+      <c r="I97" t="n">
+        <v>34.0632603364053</v>
+      </c>
+      <c r="J97" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>2.8766</v>
+      </c>
+      <c r="B98" t="n">
+        <v>54.47249566131547</v>
+      </c>
+      <c r="C98" t="n">
+        <v>56.47058823030792</v>
+      </c>
+      <c r="D98" t="n">
+        <v>53.03899082072251</v>
+      </c>
+      <c r="E98" t="n">
+        <v>62.72612536312781</v>
+      </c>
+      <c r="F98" t="n">
+        <v>59.52653060725773</v>
+      </c>
+      <c r="G98" t="n">
+        <v>64.64260099906276</v>
+      </c>
+      <c r="H98" t="n">
+        <v>54.16381473400003</v>
+      </c>
+      <c r="I98" t="n">
+        <v>30.73881887472947</v>
+      </c>
+      <c r="J98" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>2.9069</v>
+      </c>
+      <c r="B99" t="n">
+        <v>52.93542936422106</v>
+      </c>
+      <c r="C99" t="n">
+        <v>59.14505956053174</v>
+      </c>
+      <c r="D99" t="n">
+        <v>52.05554042516831</v>
+      </c>
+      <c r="E99" t="n">
+        <v>66.19803172827814</v>
+      </c>
+      <c r="F99" t="n">
+        <v>43.35154826458169</v>
+      </c>
+      <c r="G99" t="n">
+        <v>60.59255958511925</v>
+      </c>
+      <c r="H99" t="n">
+        <v>56.16955170400229</v>
+      </c>
+      <c r="I99" t="n">
+        <v>33.035714281866</v>
+      </c>
+      <c r="J99" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>2.9372</v>
+      </c>
+      <c r="B100" t="n">
+        <v>55.88513951540942</v>
+      </c>
+      <c r="C100" t="n">
+        <v>57.74351786466639</v>
+      </c>
+      <c r="D100" t="n">
+        <v>51.00082258891769</v>
+      </c>
+      <c r="E100" t="n">
+        <v>67.67408617021142</v>
+      </c>
+      <c r="F100" t="n">
+        <v>58.9939024340238</v>
+      </c>
+      <c r="G100" t="n">
+        <v>65.08185691359844</v>
+      </c>
+      <c r="H100" t="n">
+        <v>56.25202987495158</v>
+      </c>
+      <c r="I100" t="n">
+        <v>34.44976076149657</v>
+      </c>
+      <c r="J100" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>2.9674</v>
+      </c>
+      <c r="B101" t="n">
+        <v>52.62827551604017</v>
+      </c>
+      <c r="C101" t="n">
+        <v>56.04854000258336</v>
+      </c>
+      <c r="D101" t="n">
+        <v>49.92931862663147</v>
+      </c>
+      <c r="E101" t="n">
+        <v>66.84873949081405</v>
+      </c>
+      <c r="F101" t="n">
+        <v>60.0598708001044</v>
+      </c>
+      <c r="G101" t="n">
+        <v>62.79231303042282</v>
+      </c>
+      <c r="H101" t="n">
+        <v>47.83998105819454</v>
+      </c>
+      <c r="I101" t="n">
+        <v>24.87916560353049</v>
+      </c>
+      <c r="J101" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>2.9977</v>
+      </c>
+      <c r="B102" t="n">
+        <v>56.02332050955069</v>
+      </c>
+      <c r="C102" t="n">
+        <v>57.95741609027121</v>
+      </c>
+      <c r="D102" t="n">
+        <v>52.47524751975856</v>
+      </c>
+      <c r="E102" t="n">
+        <v>65.79163248064764</v>
+      </c>
+      <c r="F102" t="n">
+        <v>65.15554165515162</v>
+      </c>
+      <c r="G102" t="n">
+        <v>61.36875280905318</v>
+      </c>
+      <c r="H102" t="n">
+        <v>52.9709910443965</v>
+      </c>
+      <c r="I102" t="n">
+        <v>36.44366196757608</v>
+      </c>
+      <c r="J102" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="n">
+        <v>51.83671263526247</v>
+      </c>
+      <c r="C103" t="n">
+        <v>56.03174602676824</v>
+      </c>
+      <c r="D103" t="n">
+        <v>47.62176017731311</v>
+      </c>
+      <c r="E103" t="n">
+        <v>60.46511627409009</v>
+      </c>
+      <c r="F103" t="n">
+        <v>55.04382469619771</v>
+      </c>
+      <c r="G103" t="n">
+        <v>60.98020734655236</v>
+      </c>
+      <c r="H103" t="n">
+        <v>52.37151846633805</v>
+      </c>
+      <c r="I103" t="n">
+        <v>30.34281545957777</v>
+      </c>
+      <c r="J103" t="n">
+        <v>19.2890625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
